--- a/data/trans_bre/P62-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P62-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P62-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P62-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>160,33%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>168,28%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>235,46%</t>
         </is>
       </c>
     </row>
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-0,59; 0,93</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-0,16; 4,32</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-0,2; 5,0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-0,79; 5,43</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,36; 1156,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,73; 1061,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,11</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,28%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,85%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,17%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,97; 3,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,11; 6,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,51; 1,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,5; 4,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,52; 251,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,52; 160,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,56; 51,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,54; 108,58</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-30,97</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,05</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,54</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,2</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-86,06%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,72%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,09%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,73%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,86; -19,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,3; -3,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,36; -0,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,52; -2,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,15; -74,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,93; -21,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,95; -5,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,76; -11,96</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-44,75</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,68</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,79</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-24,61</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-78,98%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,87%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-58,28%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-60,7%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,89; -32,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,25; -9,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,31; -10,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,89; -15,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,98; -69,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,49; -36,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,44; -41,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,26; -46,33</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-53,58</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-39,32</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-35,11</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-33,93</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-68,89%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-60,37%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,39%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,36%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,54; -46,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,69; -31,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,91; -26,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,63; -26,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,06; -62,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,07; -51,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,77; -44,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,56; -43,1</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-35,75</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-28,44</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-29,72</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,56</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,14%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,55%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,07%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,85%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,88; -32,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,84; -24,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,76; -26,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,33; -5,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,31; -32,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,9; -24,96</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,0; -26,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,11; -6,43</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-29,92</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,95</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,17</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,7</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,84%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,95%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,88%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,84%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,87; -26,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,89; -11,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,13; -12,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,02; -6,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,51; -50,56</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,21; -27,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,94; -29,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,87; -11,04</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P62-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P62-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>235,46%</t>
+          <t>275,39%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 5,43</t>
+          <t>-0,61; 5,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,11</t>
+          <t>-3,7</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-35,17%</t>
+          <t>-32,76%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,5; 4,44</t>
+          <t>-15,25; 4,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-76,54; 108,58</t>
+          <t>-78,08; 110,53</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-14,2</t>
+          <t>-13,55</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-49,73%</t>
+          <t>-49,15%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-26,52; -2,56</t>
+          <t>-25,93; -2,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-68,76; -11,96</t>
+          <t>-69,27; -11,4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-24,61</t>
+          <t>-24,14</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-60,7%</t>
+          <t>-60,03%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-33,89; -15,31</t>
+          <t>-33,43; -14,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-71,26; -46,33</t>
+          <t>-71,04; -45,67</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-33,93</t>
+          <t>-33,44</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-51,36%</t>
+          <t>-51,22%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-40,63; -26,87</t>
+          <t>-40,32; -26,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-57,56; -43,1</t>
+          <t>-57,54; -42,94</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-35,75</t>
+          <t>-46,29</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-28,44</t>
+          <t>-34,86</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-29,72</t>
+          <t>-34,99</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-15,56</t>
+          <t>-11,95</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-36,14%</t>
+          <t>-46,99%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-28,55%</t>
+          <t>-34,99%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-30,07%</t>
+          <t>-35,53%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-17,85%</t>
+          <t>-14,01%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-39,88; -32,18</t>
+          <t>-51,58; -41,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-31,84; -24,89</t>
+          <t>-40,09; -29,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-33,76; -26,25</t>
+          <t>-40,35; -29,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-20,33; -5,57</t>
+          <t>-27,43; 7,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-40,31; -32,62</t>
+          <t>-52,25; -41,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-31,9; -24,96</t>
+          <t>-40,12; -29,9</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-34,0; -26,65</t>
+          <t>-41,15; -30,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-23,11; -6,43</t>
+          <t>-31,97; 8,47</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-29,92</t>
+          <t>-25,2</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-14,95</t>
+          <t>-22,65</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-16,17</t>
+          <t>-24,96</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-15,7</t>
+          <t>-12,51</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-54,84%</t>
+          <t>-25,33%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-33,95%</t>
+          <t>-22,75%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-34,88%</t>
+          <t>-25,12%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-27,84%</t>
+          <t>-14,23%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-30,55; -20,18</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-27,19; -18,4</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-29,72; -19,82</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-16,55; -8,36</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-30,73; -20,43</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-27,3; -18,46</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-29,96; -20,04</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-18,56; -9,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>-29,92</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-14,95</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-16,17</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>-10,84</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>-54,84%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>-33,95%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-34,88%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-20,03%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>-32,87; -26,62</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>-17,89; -11,86</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>-19,13; -12,98</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-20,02; -6,14</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-17,83; 4,71</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>-58,51; -50,56</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>-39,21; -27,86</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>-39,94; -29,18</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-34,87; -11,04</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-32,62; 8,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P62-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P62-Edad-trans_bre.xlsx
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 0,93</t>
+          <t>-0,59; 0,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 4,32</t>
+          <t>-0,17; 4,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 5,0</t>
+          <t>0,07; 4,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 5,71</t>
+          <t>-0,55; 5,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,12 +693,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-31,36; 1156,69</t>
+          <t>-36,03; 1000,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-26,73; 1061,73</t>
+          <t>-10,97; 1064,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 3,54</t>
+          <t>-3,89; 3,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 6,05</t>
+          <t>-1,85; 6,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 1,8</t>
+          <t>-5,13; 2,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,25; 4,95</t>
+          <t>-15,21; 5,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-72,52; 251,76</t>
+          <t>-64,61; 225,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-30,52; 160,25</t>
+          <t>-26,82; 204,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-67,56; 51,83</t>
+          <t>-63,75; 78,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-78,08; 110,53</t>
+          <t>-76,0; 182,54</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-43,86; -19,24</t>
+          <t>-44,36; -19,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,3; -3,56</t>
+          <t>-15,33; -3,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,36; -0,71</t>
+          <t>-11,62; -0,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-25,93; -2,18</t>
+          <t>-25,84; -2,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-92,15; -74,36</t>
+          <t>-92,58; -74,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-66,93; -21,44</t>
+          <t>-67,53; -20,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-61,95; -5,15</t>
+          <t>-62,58; 2,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-69,27; -11,4</t>
+          <t>-69,25; -15,13</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-55,89; -32,66</t>
+          <t>-55,52; -32,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-24,25; -9,89</t>
+          <t>-23,9; -9,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-23,31; -10,42</t>
+          <t>-23,79; -9,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-33,43; -14,81</t>
+          <t>-32,84; -14,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-84,98; -69,67</t>
+          <t>-85,4; -69,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-68,49; -36,05</t>
+          <t>-66,38; -36,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-69,44; -41,17</t>
+          <t>-70,09; -40,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-71,04; -45,67</t>
+          <t>-70,33; -44,8</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-60,54; -46,42</t>
+          <t>-60,41; -46,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-46,69; -31,68</t>
+          <t>-46,76; -31,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-41,91; -26,73</t>
+          <t>-42,12; -26,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-40,32; -26,4</t>
+          <t>-39,97; -26,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-75,06; -62,86</t>
+          <t>-74,47; -62,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-68,07; -51,99</t>
+          <t>-67,35; -50,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-61,77; -44,41</t>
+          <t>-62,37; -44,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-57,54; -42,94</t>
+          <t>-57,75; -43,41</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-51,58; -41,03</t>
+          <t>-51,82; -41,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-40,09; -29,76</t>
+          <t>-40,06; -29,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-40,35; -29,76</t>
+          <t>-40,53; -30,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-27,43; 7,03</t>
+          <t>-27,68; 5,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-52,25; -41,67</t>
+          <t>-52,62; -41,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-40,12; -29,9</t>
+          <t>-40,16; -29,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-41,15; -30,6</t>
+          <t>-41,2; -30,75</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-31,97; 8,47</t>
+          <t>-32,07; 7,42</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-30,55; -20,18</t>
+          <t>-30,89; -20,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-27,19; -18,4</t>
+          <t>-27,08; -18,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-29,72; -19,82</t>
+          <t>-30,09; -20,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-16,55; -8,36</t>
+          <t>-16,45; -8,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-30,73; -20,43</t>
+          <t>-30,95; -20,21</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-27,3; -18,46</t>
+          <t>-27,17; -18,32</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-29,96; -20,04</t>
+          <t>-30,29; -20,3</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-18,56; -9,82</t>
+          <t>-18,4; -9,56</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-32,87; -26,62</t>
+          <t>-32,9; -26,51</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-17,89; -11,86</t>
+          <t>-17,89; -12,06</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-19,13; -12,98</t>
+          <t>-19,16; -13,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-17,83; 4,71</t>
+          <t>-17,97; 7,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-58,51; -50,56</t>
+          <t>-58,44; -50,7</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-39,21; -27,86</t>
+          <t>-39,05; -28,52</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-39,94; -29,18</t>
+          <t>-39,92; -29,07</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-32,62; 8,71</t>
+          <t>-32,71; 13,63</t>
         </is>
       </c>
     </row>
